--- a/src_files/fueldata_maf2020.xlsx
+++ b/src_files/fueldata_maf2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF25572-9DD1-42F3-924B-567EC83EA4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5FF66-A1C9-45BE-8571-20CDB0E6DC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fueldata" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>fuel</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>grid</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -326,24 +326,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>27</v>
@@ -354,13 +354,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>2.5</v>
@@ -371,13 +371,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2025</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>55</v>
@@ -388,13 +388,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2025</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6">
         <v>46</v>
@@ -405,13 +405,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2025</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6">
         <v>65</v>
@@ -422,13 +422,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2025</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8">
         <v>8</v>
@@ -439,13 +439,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2025</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6">
         <v>26</v>
@@ -456,13 +456,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2025</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -473,13 +473,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2025</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -490,13 +490,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2025</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -507,47 +507,47 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2025</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2025</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>2040</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
         <v>35</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>2040</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6">
         <v>2.5</v>
@@ -575,13 +575,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>2040</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6">
         <v>75</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>2040</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6">
         <v>65</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
         <v>2040</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6">
         <v>90</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>2040</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="6">
         <v>9</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
         <v>2040</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="6">
         <v>28</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3">
         <v>2040</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3">
         <v>2040</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -694,13 +694,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3">
         <v>2040</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6">
         <v>10</v>
@@ -711,64 +711,64 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3">
         <v>2040</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3">
         <v>2040</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3">
         <v>2040</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
         <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3">
         <v>2030</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="6">
         <v>27</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="3">
         <v>2030</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="6">
         <v>2.5</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3">
         <v>2030</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6">
         <v>55</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="3">
         <v>2030</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6">
         <v>65</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3">
         <v>2030</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="6">
         <v>90</v>
@@ -847,13 +847,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3">
         <v>2030</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="6">
         <v>9</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
         <v>2030</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3">
         <v>2030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -898,13 +898,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
         <v>2030</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -915,13 +915,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3">
         <v>2030</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6">
         <v>10</v>
@@ -932,64 +932,64 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3">
         <v>2030</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3">
         <v>2030</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3">
         <v>2030</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7">
         <v>75</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>2035</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7">
         <v>27</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>2035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
         <v>2.5</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2035</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="7">
         <v>55</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>2035</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7">
         <v>46</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>2035</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="7">
         <v>65</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>2035</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="8">
         <v>8</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>2035</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="7">
         <v>26</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>2035</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>2035</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="7">
         <v>10</v>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>2035</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="7">
         <v>0</v>
@@ -1153,19 +1153,19 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>2035</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
